--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value717.xlsx
@@ -354,7 +354,7 @@
         <v>2.054271394765836</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.918211607977631</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value717.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.252603530729208</v>
+        <v>1.800385475158691</v>
       </c>
       <c r="B1">
-        <v>2.054271394765836</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.674353837966919</v>
       </c>
       <c r="D1">
-        <v>1.918211607977631</v>
+        <v>1.128020048141479</v>
       </c>
       <c r="E1">
-        <v>0.9470783762644144</v>
+        <v>0.7688800692558289</v>
       </c>
     </row>
   </sheetData>
